--- a/biology/Botanique/Conservatoire_botanique_national_du_Massif_central/Conservatoire_botanique_national_du_Massif_central.xlsx
+++ b/biology/Botanique/Conservatoire_botanique_national_du_Massif_central/Conservatoire_botanique_national_du_Massif_central.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Créé à l’initiative du Conseil général de Haute-Loire et agréé par le Ministère de l’environnement et de l’aménagement du territoire depuis le 10 juin 1998, le Conservatoire botanique national du Massif central est un établissement public à caractère scientifique et technique ayant pour objectif principal la connaissance et la conservation de la diversité biologique végétale du Massif central. Il est localisé à Chavaniac-Lafayette, dans la Haute-Loire.
 </t>
@@ -511,7 +523,9 @@
           <t>Missions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Pour atteindre cet objectif et en application du décret du 8 juillet 2004 relatif aux Conservatoires botaniques nationaux, le Conservatoire botanique national du Massif central mène, sur son territoire d’agrément, quatre missions principales :
 La connaissance de l’état et de l’évolution de la flore sauvage et des habitats naturels et semi-naturels;
@@ -545,7 +559,9 @@
           <t>Territoire d'agrément</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Conservatoire Botanique national du Massif Central intervient, d’un point de vue administratif, sur les 10 départements qui composent son territoire d’agrément soit 57 000 km² répartis sur 2 régions administratives : Auvergne-Rhône-Alpes (Allier, Ardèche, Cantal, Loire, Haute-Loire, Rhône, Puy-de-Dôme) et Nouvelle-Aquitaine (Corrèze, Creuse, Haute-Vienne). Son action s’étend au 22 départements du Massif central  (84 000 km2) lorsqu’il s’agit d’établir des synthèses biogéographiques à l’échelle du massif montagneux, en étroit partenariat avec les Conservatoires botaniques nationaux limitrophes (CBN Alpin, Méditerranéen, Pyrénées et Midi-Pyrénées, et du Bassin-Parisien).
 Ce vaste territoire d’altitude moyenne, vieux de plus de 500 millions d’années, est situé à un carrefour d’influences climatiques contrastées. Établi sur une grande diversité de sol, dont de nombreux substrats volcaniques, il recèle une flore riche de plus de 3 800 espèces et des milieux naturels de forte valeur patrimoniale.
@@ -577,7 +593,9 @@
           <t>Fonctionnement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Conservatoire est géré par le Syndicat mixte pour la création et la gestion du Conservatoire botanique du Massif central, composé de cinq membres institutionnels : le Conseil régional d’Auvergne, le conseil départemental de la Haute-Loire, le Syndicat mixte du Parc naturel régional du Livradois-Forez, le Syndicat mixte d’aménagement territorial du Haut-Allier, et la communauté de communes du Pays de Paulhaguet. Du fait des réformes administratives et territoriales, cette liste comprend en 2022 les collectivités suivantes : la Région Auvergne-Rhône-Alpes, le Conseil départemental de la Haute-Loire, les Syndicats mixtes du Parc naturel régional Livradois-Forez et d’aménagement touristique du Haut-Allier, et la communauté de communes des Rives du Haut Allier.
 Depuis le 19 juin 1998, le Syndicat mixte est administré par un Comité syndical qui approuve les orientations et les programmes d’action du Conservatoire botanique national du Massif central.
